--- a/data/trans_orig/P36BPD09_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>38392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28017</v>
+        <v>28113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52573</v>
+        <v>51632</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06645058472936416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04849291095182866</v>
+        <v>0.04865991126255322</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09099586452468217</v>
+        <v>0.08936644775963466</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -762,19 +762,19 @@
         <v>55534</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43766</v>
+        <v>45154</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68894</v>
+        <v>69244</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06778237156890068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0534192912948607</v>
+        <v>0.0551132613765879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08408887273167995</v>
+        <v>0.08451658243604837</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -783,19 +783,19 @@
         <v>93926</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77417</v>
+        <v>78005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111703</v>
+        <v>111651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06723160784679909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05541466742587006</v>
+        <v>0.05583554148431717</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07995608158703783</v>
+        <v>0.07991912473613548</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>346693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>324174</v>
+        <v>325972</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>367484</v>
+        <v>369771</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6000718647404621</v>
+        <v>0.600071864740462</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5610939461304092</v>
+        <v>0.5642073077033884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6360564793095012</v>
+        <v>0.6400151586868816</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>827</v>
@@ -833,19 +833,19 @@
         <v>477722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>455838</v>
+        <v>454890</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>499113</v>
+        <v>498798</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5830888881931616</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5563778162793823</v>
+        <v>0.5552211290796168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6091971035114945</v>
+        <v>0.608813457390042</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1243</v>
@@ -854,19 +854,19 @@
         <v>824416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>794970</v>
+        <v>793436</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>855114</v>
+        <v>855006</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5901122399022161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5690350242700956</v>
+        <v>0.5679372699005151</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6120861152303355</v>
+        <v>0.6120083404422131</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>192668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>172640</v>
+        <v>172074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>213677</v>
+        <v>214633</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3334775505301739</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2988136425255211</v>
+        <v>0.2978326322722499</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3698418102379144</v>
+        <v>0.3714956452365827</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>505</v>
@@ -904,19 +904,19 @@
         <v>286040</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>264275</v>
+        <v>266143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>306546</v>
+        <v>306465</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3491287402379378</v>
+        <v>0.3491287402379377</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3225634088834916</v>
+        <v>0.324843223691871</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3741584170363665</v>
+        <v>0.3740583804510884</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>736</v>
@@ -925,19 +925,19 @@
         <v>478707</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>447368</v>
+        <v>449867</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>510376</v>
+        <v>511142</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3426561522509848</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3202233440472324</v>
+        <v>0.3220125250576274</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3653243223774562</v>
+        <v>0.3658725083547723</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>177643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148948</v>
+        <v>148446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>214706</v>
+        <v>212728</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07981335022921887</v>
+        <v>0.07981335022921884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06692073234477969</v>
+        <v>0.06669539492283451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09646509266717883</v>
+        <v>0.09557629711243215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>192</v>
@@ -1050,19 +1050,19 @@
         <v>158611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>136838</v>
+        <v>138667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>182201</v>
+        <v>184484</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07312736561697832</v>
+        <v>0.0731273656169783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06308892638851035</v>
+        <v>0.0639322897886455</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08400352873703311</v>
+        <v>0.08505602975614349</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>327</v>
@@ -1071,19 +1071,19 @@
         <v>336255</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>299897</v>
+        <v>298644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>374667</v>
+        <v>381412</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.07651353594501138</v>
+        <v>0.07651353594501137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06824041736247684</v>
+        <v>0.06795532267547613</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08525409291724052</v>
+        <v>0.08678886163873639</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>1467753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1414842</v>
+        <v>1416684</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1523835</v>
+        <v>1519910</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6594465737363292</v>
+        <v>0.6594465737363291</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6356739952233498</v>
+        <v>0.6365018416391029</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6846435090632728</v>
+        <v>0.6828799835380327</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1930</v>
@@ -1121,19 +1121,19 @@
         <v>1436065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1394625</v>
+        <v>1398442</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1479573</v>
+        <v>1479824</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6620944362364402</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6429886967036813</v>
+        <v>0.6447484460812402</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6821537069975436</v>
+        <v>0.6822692266229273</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3255</v>
@@ -1142,19 +1142,19 @@
         <v>2903818</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2842175</v>
+        <v>2838143</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2974343</v>
+        <v>2971886</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6607534051167795</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6467266042416583</v>
+        <v>0.645809343517277</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6768011434587156</v>
+        <v>0.6762419432742841</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>580338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>528874</v>
+        <v>530150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>626081</v>
+        <v>626623</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.260740076034452</v>
+        <v>0.2607400760344519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2376177291033235</v>
+        <v>0.2381907560732932</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2812917391716905</v>
+        <v>0.2815353717701333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>795</v>
@@ -1192,19 +1192,19 @@
         <v>574297</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>535965</v>
+        <v>536866</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>609656</v>
+        <v>609200</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2647781981465815</v>
+        <v>0.2647781981465814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2471052215832432</v>
+        <v>0.2475207277583664</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2810804820010616</v>
+        <v>0.2808701382460435</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1321</v>
@@ -1213,19 +1213,19 @@
         <v>1154635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1092214</v>
+        <v>1099727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1214193</v>
+        <v>1216456</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2627330589382093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2485294631872368</v>
+        <v>0.2502388202701699</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2762853002321615</v>
+        <v>0.2768001261927081</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>56499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41309</v>
+        <v>41228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74115</v>
+        <v>76510</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07939912091184645</v>
+        <v>0.07939912091184644</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05805217616421532</v>
+        <v>0.05793822297784951</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1041548533067795</v>
+        <v>0.1075195874680083</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -1338,19 +1338,19 @@
         <v>66357</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54392</v>
+        <v>51832</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>83769</v>
+        <v>82664</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09048076880430299</v>
+        <v>0.09048076880430296</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07416621462456091</v>
+        <v>0.07067523421342803</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.114223690327756</v>
+        <v>0.1127170766575413</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>127</v>
@@ -1359,19 +1359,19 @@
         <v>122856</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>103179</v>
+        <v>103462</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>147632</v>
+        <v>150252</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08502351309593317</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0714057374740131</v>
+        <v>0.07160160055930331</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1021700647604485</v>
+        <v>0.1039828415927324</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>464438</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>435934</v>
+        <v>433501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>492233</v>
+        <v>490721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6526795532104198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6126223585081001</v>
+        <v>0.6092026912223283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6917404186751483</v>
+        <v>0.689614817206199</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>689</v>
@@ -1409,19 +1409,19 @@
         <v>492947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>472419</v>
+        <v>468202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>516612</v>
+        <v>515711</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6721578062414231</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6441670285859957</v>
+        <v>0.638416308054195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7044262476288629</v>
+        <v>0.7031974145609903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1148</v>
@@ -1430,19 +1430,19 @@
         <v>957385</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>918702</v>
+        <v>918581</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>990532</v>
+        <v>991076</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6625655679232508</v>
+        <v>0.6625655679232509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.635794651860947</v>
+        <v>0.6357110161206548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6855049546098434</v>
+        <v>0.6858815828831297</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>190649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163212</v>
+        <v>166773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216856</v>
+        <v>217798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2679213258777337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.229362871153069</v>
+        <v>0.234367451001038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3047496974112295</v>
+        <v>0.3060732527258462</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>238</v>
@@ -1480,19 +1480,19 @@
         <v>174076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151964</v>
+        <v>154900</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193794</v>
+        <v>197658</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.237361424954274</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2072101902093675</v>
+        <v>0.2112141123533945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2642481914467567</v>
+        <v>0.2695166227549895</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>409</v>
@@ -1501,19 +1501,19 @@
         <v>364725</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>334327</v>
+        <v>333770</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>401747</v>
+        <v>397013</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2524109189808159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2313734185707486</v>
+        <v>0.230988245469768</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2780322447122875</v>
+        <v>0.2747554161111564</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>272535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>235211</v>
+        <v>234332</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>311532</v>
+        <v>313671</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07753313129606325</v>
+        <v>0.07753313129606323</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06691483859559162</v>
+        <v>0.06666498761210927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08862739108031709</v>
+        <v>0.08923594014848937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>358</v>
@@ -1626,19 +1626,19 @@
         <v>280502</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>253833</v>
+        <v>253109</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>315265</v>
+        <v>311331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07537032627947809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06820454557065091</v>
+        <v>0.06800978151559028</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08471107043351958</v>
+        <v>0.08365390687272621</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>587</v>
@@ -1647,19 +1647,19 @@
         <v>553037</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>509922</v>
+        <v>509606</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>604839</v>
+        <v>608369</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07642085983872478</v>
+        <v>0.07642085983872476</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07046307136439288</v>
+        <v>0.07041947980080128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08357913571955412</v>
+        <v>0.08406686024549086</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>2278885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2216444</v>
+        <v>2217578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2341888</v>
+        <v>2342256</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6483175789384101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6305538260540298</v>
+        <v>0.6308764706760535</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6662413315215511</v>
+        <v>0.6663460364510572</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3446</v>
@@ -1697,19 +1697,19 @@
         <v>2406735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2356436</v>
+        <v>2344778</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2464859</v>
+        <v>2459112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6466849614830257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6331697602579008</v>
+        <v>0.6300373312339437</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6623027144362879</v>
+        <v>0.6607585134523178</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5646</v>
@@ -1718,19 +1718,19 @@
         <v>4685620</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4597246</v>
+        <v>4600699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4766446</v>
+        <v>4759175</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6474779684407224</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6352661473220342</v>
+        <v>0.6357431790414104</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6586468729263096</v>
+        <v>0.657642114827661</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>963655</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>909880</v>
+        <v>908896</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1022133</v>
+        <v>1018807</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2741492897655266</v>
+        <v>0.2741492897655265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.258850838459631</v>
+        <v>0.2585709509200317</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2907856746036751</v>
+        <v>0.2898393390469493</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1538</v>
@@ -1768,19 +1768,19 @@
         <v>1034413</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>983314</v>
+        <v>986491</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1081272</v>
+        <v>1089605</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2779447122374962</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.264214510894411</v>
+        <v>0.2650680600916419</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2905355933952271</v>
+        <v>0.2927746647096156</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2466</v>
@@ -1789,19 +1789,19 @@
         <v>1998068</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1922086</v>
+        <v>1920861</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2072397</v>
+        <v>2075689</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2761011717205529</v>
+        <v>0.2761011717205528</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2656017042354047</v>
+        <v>0.2654323704019803</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2863722198474375</v>
+        <v>0.2868271764245952</v>
       </c>
     </row>
     <row r="19">
